--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.54160000000001</v>
+        <v>-13.515</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5043</v>
+        <v>6.374599999999997</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.1973</v>
+        <v>-11.1801</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.848799999999997</v>
+        <v>-8.774999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.050199999999998</v>
+        <v>6.760399999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.511299999999999</v>
+        <v>9.374799999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.6917</v>
+        <v>-12.93930000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.247800000000004</v>
+        <v>5.675500000000002</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.9266</v>
+        <v>-13.1176</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.2376</v>
+        <v>-11.3435</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.76800000000001</v>
+        <v>-13.8049</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.4752</v>
+        <v>-13.717</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.687799999999992</v>
+        <v>-8.664499999999991</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.191600000000002</v>
+        <v>-7.221600000000003</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.34699999999999</v>
+        <v>-12.29069999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.660500000000001</v>
+        <v>-7.772000000000003</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.6023</v>
+        <v>-14.07680000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.257499999999999</v>
+        <v>-8.044400000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.770500000000003</v>
+        <v>-7.8311</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.018199999999997</v>
+        <v>6.389099999999997</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.8173</v>
+        <v>-12.7691</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.0303</v>
+        <v>-12.11649999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.921799999999996</v>
+        <v>-7.963799999999996</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.065500000000001</v>
+        <v>4.8313</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>7.012500000000006</v>
+        <v>7.060900000000003</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.0288</v>
+        <v>-14.1983</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.673900000000003</v>
+        <v>-7.6495</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.04430000000001</v>
+        <v>-13.3159</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
